--- a/results/CAMARAGIBE - ALTO DA BOA VISTA - 11.09.xlsx
+++ b/results/CAMARAGIBE - ALTO DA BOA VISTA - 11.09.xlsx
@@ -767,7 +767,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -825,43 +825,56 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>NÃO VOTARIA DE JEITO NENHUM</t>
+          <t>NÃO O CONHECE O SUFICIENTE PARA OPINAR</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>23.26%</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>NÃO SABE/NÃO RESPONDEU</t>
+          <t>NÃO VOTARIA DE JEITO NENHUM</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>25.58%</t>
+          <t>23.26%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
+          <t>NÃO SABE/NÃO RESPONDEU</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>11</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>25.58%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B7" t="n">
         <v>43</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>100.00%</t>
         </is>
@@ -1226,7 +1239,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1284,43 +1297,69 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>NÃO SABE/NÃO RESPONDEU</t>
+          <t>FELIPE DANTAS, APOIADO POR ANDERSON FERREIRA</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>20.93%</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>NENHUM DELES</t>
+          <t>BOSCO, APOIADO POR DUDU DA FONTE</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>4.65%</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
+          <t>NÃO SABE/NÃO RESPONDEU</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>20.93%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>NENHUM DELES</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>4.65%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B8" t="n">
         <v>43</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>100.00%</t>
         </is>
@@ -1337,7 +1376,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1380,43 +1419,82 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>NÃO SABE/NÃO RESPONDEU</t>
+          <t>JORGE ALEXANDRE</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>51.16%</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>NENHUM DELES</t>
+          <t>BOSCO</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>32.56%</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
+          <t>FELIPE DANTAS</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>NÃO SABE/NÃO RESPONDEU</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>22</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>51.16%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>NENHUM DELES</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>14</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>32.56%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B8" t="n">
         <v>43</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>100.00%</t>
         </is>
@@ -1433,7 +1511,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1491,43 +1569,56 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>NÃO VOTARIA DE JEITO NENHUM</t>
+          <t>NÃO SOU INFLUENCIÁVEL PELO APOIO DE LULA</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>20.93%</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>NÃO SABE/NÃO RESPONDEU</t>
+          <t>NÃO VOTARIA DE JEITO NENHUM</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>39.53%</t>
+          <t>20.93%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
+          <t>NÃO SABE/NÃO RESPONDEU</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>17</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>39.53%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B7" t="n">
         <v>43</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>100.00%</t>
         </is>
@@ -1781,7 +1872,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1809,88 +1900,101 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>BOA</t>
+          <t>ÓTIMA</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2.33%</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>REGULAR</t>
+          <t>BOA</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>25.58%</t>
+          <t>2.33%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>RUIM</t>
+          <t>REGULAR</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>32.56%</t>
+          <t>25.58%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>PÉSSIMA</t>
+          <t>RUIM</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>37.21%</t>
+          <t>32.56%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>NÃO SABE/NÃO RESPONDEU</t>
+          <t>PÉSSIMA</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2.33%</t>
+          <t>37.21%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
+          <t>NÃO SABE/NÃO RESPONDEU</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2.33%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B8" t="n">
         <v>43</v>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>100.00%</t>
         </is>
@@ -2144,7 +2248,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2217,28 +2321,41 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>NÃO SABE/NÃO RESPONDEU</t>
+          <t>DESEMPREGADO</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>4.65%</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
+          <t>NÃO SABE/NÃO RESPONDEU</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>4.65%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B7" t="n">
         <v>43</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>100.00%</t>
         </is>
@@ -2255,7 +2372,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2313,43 +2430,69 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>MAIS DE 10 SALÁRIOS MÍNIMOS</t>
+          <t>DE 3 A 5 SALÁRIOS MÍNIMOS</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>4.65%</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>NÃO SABE/NÃO RESPONDEU</t>
+          <t>DE 5 A 10 SALÁRIOS MÍNIMOS</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>20.93%</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
+          <t>MAIS DE 10 SALÁRIOS MÍNIMOS</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>4.65%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>NÃO SABE/NÃO RESPONDEU</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>20.93%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B8" t="n">
         <v>43</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>100.00%</t>
         </is>
@@ -2742,7 +2885,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2800,43 +2943,69 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>NÃO SABE/NÃO RESPONDEU</t>
+          <t>BOSCO</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>23.26%</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>NENHUM DELES</t>
+          <t>FELIPE DANTAS</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>4.65%</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
+          <t>NÃO SABE/NÃO RESPONDEU</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>23.26%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>NENHUM DELES</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>4.65%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B8" t="n">
         <v>43</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>100.00%</t>
         </is>
@@ -2990,7 +3159,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3048,43 +3217,69 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>NÃO SABE/NÃO RESPONDEU</t>
+          <t>BOSCO</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>25.58%</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>NENHUM DELES</t>
+          <t>FELIPE DANTAS</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>6.98%</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
+          <t>NÃO SABE/NÃO RESPONDEU</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>11</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>25.58%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>NENHUM DELES</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>6.98%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B8" t="n">
         <v>43</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>100.00%</t>
         </is>
@@ -3096,6 +3291,143 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>8. INDEPENDENTE DA SUA INTENÇÃO DE VOTOS, QUEM VOCÊ ACREDITA QUE GANHARÁ A ELEIÇÃO PARA PREFEITO DE CAMARAGIBE? (RU ESTIMULADA)</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>contagem</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>porcentagem</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>DIEGO CABRAL</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>14</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>32.56%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>JORGE ALEXANDRE</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>17</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>39.53%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>BOSCO</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>FELIPE DANTAS</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>NÃO SABE/NÃO RESPONDEU</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>20.93%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>NENHUM DELES</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>6.98%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>43</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3112,7 +3444,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>8. INDEPENDENTE DA SUA INTENÇÃO DE VOTOS, QUEM VOCÊ ACREDITA QUE GANHARÁ A ELEIÇÃO PARA PREFEITO DE CAMARAGIBE? (RU ESTIMULADA)</t>
+          <t>9. EM RELAÇÃO A SUA INTENÇÃO DE VOTO PARA PREFEITO DE CAMARAGIBE, HOJE VOCÊ DIRIA QUE: (RU ESTIMULADA)</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -3129,61 +3461,59 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>DIEGO CABRAL</t>
+          <t>É DEFINITIVA, NÃO MUDAREI DE OPINIÃO</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>32.56%</t>
+          <t>74.42%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>JORGE ALEXANDRE</t>
+          <t>NÃO É DEFINITIVA, MUDAREI DE OPINIÃO</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>39.53%</t>
+          <t>11.63%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>NÃO SABE/NÃO RESPONDEU</t>
+          <t>TALVEZ MUDAREI DE OPINIÃO</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>20.93%</t>
+          <t>13.95%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>NENHUM DELES</t>
+          <t>NÃO SABE/NÃO RESPONDEU</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>6.98%</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -3196,102 +3526,6 @@
         <v>43</v>
       </c>
       <c r="C6" t="inlineStr">
-        <is>
-          <t>100.00%</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>9. EM RELAÇÃO A SUA INTENÇÃO DE VOTO PARA PREFEITO DE CAMARAGIBE, HOJE VOCÊ DIRIA QUE: (RU ESTIMULADA)</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>contagem</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>porcentagem</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>É DEFINITIVA, NÃO MUDAREI DE OPINIÃO</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>32</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>74.42%</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>NÃO É DEFINITIVA, MUDAREI DE OPINIÃO</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>5</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>11.63%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>TALVEZ MUDAREI DE OPINIÃO</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>6</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>13.95%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>43</v>
-      </c>
-      <c r="C5" t="inlineStr">
         <is>
           <t>100.00%</t>
         </is>
